--- a/debt.xlsx
+++ b/debt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>银行</t>
   </si>
@@ -68,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +82,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,44 +156,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,19 +195,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -197,30 +227,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +241,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +349,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +432,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,30 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -497,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,21 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,141 +552,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1242,6 +1251,157 @@
       </c>
       <c r="G10" s="1">
         <v>43571</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4456.97</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>8746.22</v>
+      </c>
+      <c r="E13">
+        <v>1312.64</v>
+      </c>
+      <c r="F13">
+        <f>SUM(B11:E13)</f>
+        <v>14515.83</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>174.1</v>
+      </c>
+      <c r="C14">
+        <v>245.47</v>
+      </c>
+      <c r="F14">
+        <f>SUM(B14:E14)</f>
+        <v>419.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>12509.84</v>
+      </c>
+      <c r="F15">
+        <v>12509.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>5200.99</v>
+      </c>
+      <c r="C16">
+        <v>7719.32</v>
+      </c>
+      <c r="D16">
+        <v>13050.38</v>
+      </c>
+      <c r="E16">
+        <v>33442</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B16:E16)</f>
+        <v>59412.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>449.83</v>
+      </c>
+      <c r="D17">
+        <v>3148.81</v>
+      </c>
+      <c r="F17">
+        <f>SUM(B17:E17)</f>
+        <v>3598.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1689.77</v>
+      </c>
+      <c r="D18">
+        <v>1666.67</v>
+      </c>
+      <c r="E18">
+        <v>7307.68</v>
+      </c>
+      <c r="F18">
+        <f>SUM(C18:E18)</f>
+        <v>10664.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>7084.8</v>
+      </c>
+      <c r="F19">
+        <v>7084.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20">
+        <v>4655.66</v>
+      </c>
+      <c r="D20">
+        <v>10100</v>
+      </c>
+      <c r="E20">
+        <v>8416.71</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>25192.37</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21">
+        <f>SUM(F13:F20)</f>
+        <v>133397.86</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43664</v>
       </c>
     </row>
   </sheetData>
